--- a/TestDataProject/src/test/resources/testdata/BankManagerSuite.xlsx
+++ b/TestDataProject/src/test/resources/testdata/BankManagerSuite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rakesh\Personal\Courses\Eclipse workspace\TestDataProject\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F484AE50-B975-4E85-813E-254652E4909F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD31604-1DD7-41DF-97D3-6184257521D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1589F08C-D30E-4DC7-8377-F0FF2AFC4131}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -488,7 +488,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
